--- a/results/robustness_and_top_5_most_critical_nodes.xlsx
+++ b/results/robustness_and_top_5_most_critical_nodes.xlsx
@@ -31,16 +31,745 @@
     <t xml:space="preserve">Top 5 critical nodes</t>
   </si>
   <si>
+    <t xml:space="preserve">Sand beach, South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Gastrosaccus, Callianassa, Donax', 'bacteria', 'Cumacea', 'Turbellaria', 'Nemertea']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sítios Novos reservoir (2011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Camarão', 'Cladocera', 'Copepoda', 'M. tuberculata', 'Ostracoda']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminos Lagoon (1980)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Meiofauna', 'Polychaetes', 'Zooplankton', 'Microcrustaceans', 'Molluscs']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Gulf of Mexico (2005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['SEP', 'INF', 'ZOO', 'MEP', 'MUL']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huizache-Caimanero (1984)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Gastropods', 'Polychaets', 'Microcrustaceans', 'Chanids', 'Zooplankton']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulf of California (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'Farfantepenaeus californiensis (ADULTS)', 'Benthic inv.', 'Litopenaeus stylirostris (ADULTS)', 'Stomatopoda']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West coast of Sabah (1972)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'Meiobenthos', 'Macrobenthos', 'Small crsustaceans', 'Octopus sepia']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malangen Fjord (2017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bacteria', 'Microzooplankton', 'Detritivore polychaetes', 'Sea cucumbers', 'Small krill']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropical plankton community, Pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['bacteria', 'Appendicularia large', 'Radiolaria', 'Acartia  large', 'Infusoria']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamboung (2003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Macrobenthos', 'Tilapias', 'Zooplancton', 'Meiobenthos', 'Petits benthoph']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamboung (2006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sørfjord (1993)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['small zooplankton', 'detrivore echinoderms', 'detrivore polychaetes', 'large bivalves', 'other benthic invert']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barra Del Chuy (1992)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Birds', 'Atlantorchestoidea brasiliensis', 'Carabide', 'Donax hanleyanus', 'Emerita brasiliensis']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco and Colima Coast (1995)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Otros peces', 'Braquiuros', 'Infauna', 'Equinodermos', 'Otros macroinve']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contemporary Alosine (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bacteria', 'Small Copepods', 'Megabenthos filters', 'Microzooplankton', 'Large Copepods']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Gulf of California (1978)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'Shrimp', 'Meiobenthos', 'Stomatopods', 'Polychaeta']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirinhaém River (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplakton', 'Bivalves', 'Gastropods', 'Fiddler crabs', 'Mullet  ']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Western Mediterranean sea (2009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mesopelagic crustacea', 'Meiobenthos', 'Benthic invertebrates, other', 'Benthic invertebrates, crustacea', 'Aristeus antennatus']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restored Alosine Biomass (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bacteria', 'Copepods_S', 'Megabenthos_filters', 'Microzooplankton', 'Copepods_L']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North South of China Sea (1970)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplanktons', 'Polychaetes', 'Non-ceph molluscs', 'Benthic crustaceans', 'Shrimps']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Atlantic (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Sm. Zoop. shlw', 'Het. bacteria', 'Sm. Zoop. deep', 'Megabenthos', 'Meiobenthos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Atlantic (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Atlantic (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Atlantic (1997)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea  (2004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Large zooplankton', 'Small zooplankton', 'Benthos', 'Crustacea', 'Cephalopods']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alto Golfo de California (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Infauna', 'Mojarras', 'Haemulidos', 'Poliquetos', 'Myctophidos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Pyhajarvi, littoral zone, Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Cyclopoida', 'Keratella, Kellicottia', 'Codonella, Vorticella', 'Lymnaea', 'chironomids']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Cros (1998)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Foraminifera', 'Brittle stars +', 'Sea cucumbers', 'Small zooplankton', 'Bivalves']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermaikos Gulf (1998)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'Benthic small crustaceans', 'Benthic invertebrates', 'Polychaetes', 'Shrimps']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritanie  (1991)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['mesozooplankton', 'BA mesozooplankton', 'BA meiobenthos', 'shelf meiobenthos', 'shelf molluscs']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay of Biscay (1970)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Small Deepwater', 'Worms', 'Zooplankton Large', 'Molluscs', 'Sponges/Epibenthic']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea (1985)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa sur MEXICO (1994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Gastropoda', 'Macrocrustáceos', 'Polychaeta', 'Zooplancton', 'Penaeidae']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgin Islands (1960)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['I7 Decom/Microf', 'F9 ReefherbBG', 'F8 ReefherbSM', 'I5 Sess.Animals', 'I3 Crustacea']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Florida Shelf Historic Model (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Microbial Heterotrophs', 'Mullets', 'Bivalves', 'Small Copepods', 'Sessile epibenthos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looe Key National Marine Sanctuary (1980)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Decomp/Microf', 'LgReefHerbivore', 'SmReefHerbivore', 'Sessile Animals', 'Crustaceans']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolinao Coral Reef (1980)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Molluscs', 'Sea cucumber', 'Sea Urchins', 'Siganus fusc.', 'Zooplankton']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hudson Bay (1970)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['MicroZooplankton', 'Copepods', 'Other Benthos', 'Bivalves', 'Marine Worms']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic Sea (1985)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bacteria', 'Commercial bivalves', 'Suspension/Surface detritus feeder benth. inv.', 'Mesozooplankton - Small', 'Benthic meiofauna']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Scotland (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Epifauna', 'Infauna', 'Small zooplankton', 'Polychaetes', 'Large zooplankton']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South western Gulf of Mexico (1970)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Annelids', 'Zooplankton', 'Microcrustacean', 'Molluscs', 'Crabs']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galapagos, Floreana rocky reef (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Herbivorous zooplankton', 'Small benthic invertebrate eaters', 'Filter + suspension feeders', 'Lytechinus urchin', 'Other sea cucumbers']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA, South Atlantic Continental Shelf (1995)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'Bivalves', 'Benthic macrofauna (and meiofauna)', 'Sessile epibenthos', 'Echinoderms and gastropods']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondego Estuary - Zostrea site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Hydrobia ulvae', 'Melita palmata', 'Ampithoe ferox', 'Gibulla', 'Littorina']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raja Ampat (2005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Infaunal invertebrates', 'Jellyfish and hydroids', 'Shrimps and prawns', 'Penaeid shrimps', 'Hermatypic scleractinian corals']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raja Ampat (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Gulf of St Lawrence (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Echinoderms', 'Molluscs', 'Other bent. invert.', 'Small zooplankton', 'Large zooplankton']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangrove Estuary - Dry Season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['INSCT', 'MICR. H2O', 'EPIFN', 'BACT.SED.', 'VULT']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mangrove Estuary - Wet Season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco (1985)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Lg. zooplankton', 'Other benthos', 'Worms', 'Sm. deep water bottom', 'Detrital feeders']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonda_Campeche_Act (1988)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Infauna', 'Zooplancton', 'Epifauna', 'Camarón', 'Pulpo']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagus estuary, Portugal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Crassostrea angulata', 'Scrobicularia plana, Cerastodenlla', 'Mytilus', 'bacteria', 'Gammaridae']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal River Creek - Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['benthic invertebrates', 'mullet', 'zooplankton', 'sheepshead killifish', 'goldspotted killifish']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania (1987)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['micro zooplancton', 'meso zooplancton', 'mugilides', 'macrobenthos', 'crustaces non-comm']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvi Bay (1998)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Protozoa', 'Ot. Crustacea', 'Pel. Bacteria', 'Herb. Fish', 'Echinoderms']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania (1998)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay of Biscay (1998)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton Large', 'Small Deepwater', 'Crabs', 'Worms', 'Molluscs']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independence Bay (1996)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['zooplankton', 'littoral fish ', 'benthic detrivores', 'herbivorous gastropods', 'scallops']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde (1981)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'Microfauna', 'Herbivores', 'Heterotrophic b', 'Molluscs/Worms']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antarctic (1970)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Copepods', 'Hemichordata', 'Holothuroidea', 'Micro-Zooplankton', 'Macro-Zooplankton']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish Sea (1973)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Infauna (Polycheate)', 'Herbivorous Zooplankton', 'Meiofauna', 'Infaunal Mesobenthos', 'Prawns and Shrimp']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galapagos (2006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Predatory zooplankton', 'Herbivorous zooplankton', 'Mullets', 'Herbivorous benthic fishes', 'Sea cucumbers']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albatross Bay (1986)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthic herbivores', 'Estuarine microbial heterotrophs', 'Estuarine zooplankton', 'Estuary detritivores', 'Insects']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Carnivorous zooplankton', 'Herbivorous zooplankton', 'Benthos', 'Mullets and other herbivores', 'Sardinellas']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone 1978 (1978)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru (1973)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'Meiobenthos', 'Makrobenthos', 'Anchoveta', 'Sardine']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chesapeake Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Free Bacteria', 'Particle Attached Bacteria', 'Benthic Bacteria', 'Suspension Feeding Benthos', 'Deposit Feeding Benthos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narragansett Bay Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mesozooplankton', 'Microzooplankto', 'Shrimp(Pal,Crg)', 'Menhaden', 'Bay Anchovy']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea (1998)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthos', 'Zool S', 'Zool L', 'Crustacés', 'Céphalopodes']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Baffin Bay, Coastal and Shelf (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bacteria', 'Microzooplankton', 'Calanus', 'Omnivorous zooplankton', 'Other benthos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulf of Carpentaria (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Small crustaceans', 'Microbial heterotrophs', 'Zooplankton', 'Echinoids', 'Bivalves']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sechura Bay (1996)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'littoral fish', 'Benthic detrivores', 'Herbivorous gastropods', 'Scallops']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru (1960)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Meiobenthos', 'Makrobenthos', 'Zooplankton', 'Anchoveta', 'Sardine']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South East Alaska (1963)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthic inverts', 'L zoo', 'Epibenthic carnivorous', 'Shrimps', 'Sablefish']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Tropical Pacific Ocean (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['mesozooplankton', 'crustacea', 'epipelagic fish', 'mesopelagic fish', 'piscivorous fish']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru (1953)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Benguela (1600)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Microzooplankto', 'Meiobenthos', 'Pelagic Goby', 'Macrobenthos', 'Gelatinous zoop']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Benguela (1900)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Benguela (1967)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Benguela (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Gulf St Lawrence (1985)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Echinoderms', 'Molluscs', 'Other ben. inver.', 'Small zooplankton', 'Large zooplankton']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['zooplankton', 'zoobenthos', 'molluscs', 'crabs', 'annelids']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraná River Floodplain (1992)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Insects', 'Zooplankton', 'Astyanax altiparanae', 'Other benthos feeders', 'Benthos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnegat Bay (1981)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthic infauna/epifauna', 'Bay anchovy', 'Amphipods', 'Hard clams', 'Oyster']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone (1964)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ningaloo (2007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Adult Turtles', 'Dugongs', 'Urchins', 'Benthos', 'Herbivores']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland, West Coast (1997)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Small Zooplankton', 'Large Zooplankton', 'Benthos', 'Other bot fish', 'Northern shrimp']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azores (1997)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Small Zooplankton', 'Benthic filter feeders', 'Other benthos', 'Benthic worms', 'Crabs']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay of Biscay (1980)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bacteria', 'Surface suspension and deposit feeders', 'Subsurface deposit feeders invertebrates', 'Shrimps', 'Benthic meiofauna']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay of Biscay (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia North West Shelf (1986)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['LgZooplankton', 'SmZooplankton', 'Megabenthos', 'Macrofauna', 'SmallPelagics']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River Rheido, Wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[' Rhithrogena', ' Baetis', ' Chironomidae', ' Leuctra, Protonemeura, Amphinemura', ' Oligochaeta']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mount St Michel Bay (2003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['juvenile cephal', 'juvéniles poiss', 'Moules', 'macrobenthos', 'Mulets']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icelandic shelf (1997)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthos', 'Nothern shrimp', 'Other flatfish', 'Nephros', 'Molluscs']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Corsican Coast (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Worms', 'Benthic crustaceans', 'Echinoderms', 'Cnidaria', 'Zooplankton']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Phillip Bay (1994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Large zooplankton', 'Deposit Feeders', 'Filter Feeders', 'Epi. Predators', 'Other Grazers']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA, Mid Atlantic Bight (1995)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bivalves', 'Small crustaceans', 'Polychaetes', 'Euphausiids', 'Sessile epibenthos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Paajarvi, littoral zone, Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['bacterioplankton', 'Copepoda', 'Mollusca', 'Anodonta', 'Nematoda']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasmanian Seamounts Marine Reserve (1992)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'Gelatinous zooplankton', 'Benthopelagic fish', 'Megabenthos', 'Epibenthos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic Sea-Biscay (1980)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton S', 'Benthos', 'Zooplankton L', 'Shrimps/crabs', 'Lobsters/crabs']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic Sea-Biscay (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurien Bay (2007)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Small Zooplankton', 'Small mobil epifauna', 'Chaetognaths', 'Large Herb. Gastropods', 'Inshore reef ass. herbivore']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic Sea (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bacteria', 'Surface suspension and deposit feeders', 'Sub-surface deposit feeders invertebrates', 'Shrimps', 'Benthic meiofauna']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerbère-Banyuls MPA (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Meso and microzooplankton', 'Macrozooplankton', 'Other macro-benthos', 'Suprabenthos', 'Other sea urchin']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay of Biscay (1994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mesozooplankton', 'Microzooplankton', 'Bacteria', 'Benthic meiofauna', 'Necrophagous benthic invertebrates']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic Sea (1980)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azores archipelago (1997)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['large zoopl', 'small zoopl', 'other benthos', 'sea stars', 'coastal M herb']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baie de Seine (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Meszooplankton and Macrozooplancton', 'Suprabenthos', 'Bacteria', 'Benthic inv. deposit feeders (Subsurface)', 'King scallop']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthos', 'Northern Shrimp', 'Nephrops', 'Molluscs', 'Baleen whales']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Sea (1974)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Polychaetes', 'Echinoderms', 'Copepods', 'O.crustaceans', 'O.invertebrates']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ria-Lake Tapajos (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'Aquatic invertebrates', 'Others algivores/detritivores', 'Semaprochilodus spp. ', 'Schizodon spp.']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apalachicola Bay (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Macrozooplankton', 'Microzooplankton', 'Zoobenthos', 'Blue crab', 'Oysters']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulf of Gabes (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Micro and mesozooplankton', 'Amphipoda and Isopoda', 'Polychaetes', 'Benthic molluscs', 'Foraminifera']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Rotifers', 'Cladocerans', 'Cyclopoids', 'Sphae/Gast', 'Benthic microin']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark, Faroe Islands (1997)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthos', 'Other demersal fish', 'Other deep water', 'Greenland Halibut', 'Saithe']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Bay - wet season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthic Flagellates', 'Herbivorous Amphipods', 'Detritivorous Gastropods', 'Water Flagellates', 'Halfbeaks']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulf of Thailande (1963)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Zooplankton', 'Scad', 'Benthos', 'O.fish', 'Shrimps']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Sea (1981)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['PT pico', 'Polychaeta', 'Echinodermata', 'O.macrobenthos', 'O.invertebrates']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everglades Graminoids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mesoinverts', 'Terrestrial Inverts', 'Fishing spider', 'Passerines', 'Mink']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulf of Mexico (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['18+ Mullet', 'Benthic Invertebrates', 'Macro Zooplankton', 'Shrimp', 'Caridan Shrimp']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida Bay (2006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Caridean shrimp', 'Small crustaceans', 'Bivalves', 'Annelids', 'Mud crabs']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa Bay (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthic Invertebrates', 'Macro Zooplankton', 'Caridan Shrimp', 'Catfish', 'Bay Anchovy']</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lower Chesapeake Bay</t>
   </si>
   <si>
     <t xml:space="preserve">['Free Bacteria', 'Ctenophores', 'Particle Attached Bacteria', 'Benthic Bacteria', 'Suspension Feeding Benthos']</t>
   </si>
   <si>
-    <t xml:space="preserve">Middle Chesapeake Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Free Bacteria', 'Particle Attached Bacteria', 'Benthic Bacteria', 'Suspension Feeding Benthos', 'Deposit Feeding Benthos']</t>
+    <t xml:space="preserve">Florida Bay - dry season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthic Flagellates', 'Herbivorous Amphipods', 'Detritivorous Gastropods', 'Detritivorous Crabs', 'Water Flagellates']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap de Creus MPA - whole (2008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medes Island MPA (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesser Antilles (2001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Small zooplankton', 'Large zooplankton', 'Small offshore pelagics', 'Small coastal pelagics', 'Coastal predators']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aegean Sea (2003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Micro/Mesozooplankton', 'Macrozooplankton', 'Benthic invertebrates', 'Squids', 'Benthic small crustaceans']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Shetlands (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Other zooplankton', 'Salps', 'Krill', 'Small invertebrates', 'Large invertebrates']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern British Columbia (2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Carnivorous jellyfish', 'Epifaunal invertebrates', 'Forage fish', 'Infaunal carnivorous invertebrates', 'Infaunal invertebrate detritivores']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Florida Shelf (1985)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['anthozoans', 'microbes', 'mullet', 'sessile epibenthos', 'herbivorous zooplankton']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Antarctic Peninsula (1996)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthic invertbrates', 'Micro-Zool', 'Meso zooplankton', 'Krill Small', 'Krill Large']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleutian Islands (1963)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Small zooplankton', 'Cephalopods', 'Benthic inverts', 'Shrimps', 'Epiben carnivores']</t>
   </si>
   <si>
     <t xml:space="preserve">Upper Chesapeake Bay</t>
@@ -49,958 +778,229 @@
     <t xml:space="preserve">['Free Bacteria', 'Ctenophores', 'Suspension Feeding Benthos', 'Bay anchovy', 'Particle Attached Bacteria']</t>
   </si>
   <si>
+    <t xml:space="preserve">West scotland DeepSea (1974)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Large zooplankton', 'Polychaetes', 'Prawns and shrimp', 'Other benthic inverts', 'Echinoderms']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Baltic Sea (1974)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mysids', 'macrozoobenthos', 'Detritus-water column', 'meiozoobenthos', 'Ad. Sprat']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern British Columbia (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaloko Honokohau (2005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Sharks and jacks', 'Zooplankton', 'Corals', 'Benthic Invts', 'Urchins']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Californian Current (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['amphipods', 'cephalopods', 'pandalid shp', 'juv rock', 'mackerel']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince William Sound (1994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Shal Sm Epibent', 'Shal sm Infauna', 'Deep  Epibent', 'Shal Lg Epibent', 'Rockfish']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatan (1987)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Annelids', 'Microcrustacean', 'Octopus', 'Shrimps', 'Zooplankton']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Benguela (1600)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Microzooplank.', 'Gelatinous zoo.', 'Macrobenthos', 'Benthicdemers', 'Meiobenthos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Benguela (1900)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Microzooplankto', 'Gelatinous zoop', 'Macrobenthos', 'Benthic-feedi23', 'Meiobenthos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Benguela (1978)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South of Benguela (1960)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Microzooplankto', 'Gelatinous zooz', 'Macrobenthos', 'Benthic-feedi23', 'Meiobenthos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Benguela (1956)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mesozooplankton', 'Macrobenthos', 'Cephalopods', 'Jellyfish adults', 'Anchovy adults']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humboldt Current (1995)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Microzooplankton', 'macrobenthos', 'horse mackerels', 'large hake', 'medium sciaenids']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Channel (1973)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mesozooplankton', 'deposit feeders', 'Bivalves', 'scallops', 'Echinoderms']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Channel (1993)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Mesozooplankton', 'deposit feeders', 'Bivalves', 'Scallops', 'Echinoderms']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Pola Bay (2001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Bivalvos', 'Copepodos planct.', 'Anfipodos', 'Misidaceos', 'Poliquetos']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chesapeake (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Other in/epi fauna', 'Littoral forage fish', 'Reef assoc. fish', 'Atl. croaker', 'Other suspension feeders']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocky shore, Monterey Bay, California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['other phytoplankton', 'Suidasia sp.', 'Acmaea pella', 'Tegula funebralis', 'Acmaea digitalis']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Humboldt Current (1997)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Microzooplankton', 'macrobenthos', 'gelatinous zooplankton', 'horse mackerels', 'medium sciaenids']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falkland Islands (1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['benthic crustaceans', 'small demersal', 'grenadier', 'small cephalopods', 'dogfish']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal River Creek - Delta Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['benthic invertebrates', 'bay anchovy', 'zooplankton', 'sheepshead killifish', 'goldspotted killifish']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress Dry Season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Ter. Invertebrates', 'Aquatic Invertebrates', 'Mink', 'Living POC', 'Living sediment']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress Wet Season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Terrst. I', 'White ibis', 'Aquatic I', 'Raccoon', 'Living POC']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Columbia coast (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['other benthos', 'shrimps', 'misc. small pelagics', 'misc. small demersals', 'crabs']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Chile (1998)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Carrot prawn (a)', 'Carrot prawn (j)', 'Yellow prawn', 'Chilean hake (j)', 'Chilean hake (a)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Bass Strait (1994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Squid', 'Macrobenthos', 'Cardinal', 'Megabenthos', 'Polychaeta']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North East Pacific (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charca de Maspalomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Benthic Deposit Feeders', 'Benthic Microfauna', 'Liza Aurata', 'Dicentratus punctatus', 'Pelagic Bacteria']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strait of Georgia (1950)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['other benthos', 'crabs', 'misc. small demersals', 'shrimps', 'bivalves']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Californian Current (1960)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['zooplankton', 'forage fish and mesopels', 'benthic invertebrates', 'shrimps', 'cephalopods']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctic seas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['phytoplankton', 'benthonic invertebrates', 'bacteria', 'larger zooplankton', 'Greenland shark']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shallow sublittoral, Cape Ann, Massachusetts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['annelids', 'Myoxocephalus', 'Pomatomus, Poronatus', 'isopods, Gammarus, Caprella', 'Crago']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ythan estuary, Aberdeenshire, Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Flounder Platichthyes fiesus', 'Corophium volutator', 'Ragworm Nereis diversicolor', 'Barnacles Semibalanus balanoides', 'Gammurus sp.']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Rock Lake, Wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Alona affinis', 'Alona quadrangularis', 'Alona rustica', 'Alona intermedia', 'Alonella excisa']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasek Bera swamp, Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['bacteria, fungi', 'detriuvorous invertebrates', 'detritivorous fishes', 'carnivorous fishes', 'emergent herbivorous insects']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swamp, south Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['insect larvae', 'crayfish', 'plecopterans, odonates, hemipterans', 'cyprinodontids', 'amphipods']</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chesapeake Bay Mesohaline</t>
   </si>
   <si>
     <t xml:space="preserve">['bacteria in sediment poc', 'zooplankton', 'blue crab', 'bay anchovy', 'menhaden']</t>
   </si>
   <si>
-    <t xml:space="preserve">Crystal River Creek - Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['benthic invertebrates', 'mullet', 'zooplankton', 'sheepshead killifish', 'goldspotted killifish']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal River Creek - Delta Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['benthic invertebrates', 'bay anchovy', 'zooplankton', 'sheepshead killifish', 'goldspotted killifish']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charca de Maspalomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthic Deposit Feeders', 'Benthic Microfauna', 'Liza Aurata', 'Dicentratus punctatus', 'Pelagic Bacteria']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Rotifers', 'Cladocerans', 'Cyclopoids', 'Sphae/Gast', 'Benthic microin']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mondego Estuary - Zostrea site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Hydrobia ulvae', 'Melita palmata', 'Ampithoe ferox', 'Gibulla', 'Littorina']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narragansett Bay Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Mesozooplankton', 'Microzooplankto', 'Shrimp(Pal,Crg)', 'Menhaden', 'Bay Anchovy']</t>
-  </si>
-  <si>
     <t xml:space="preserve">St. Marks River (Florida)</t>
   </si>
   <si>
     <t xml:space="preserve">['Benthic bact', 'Bacterio plankton', 'Micro protozoa', 'Predatory polycht', 'Predatory gastropod']</t>
   </si>
   <si>
-    <t xml:space="preserve">Aegean Sea (2003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Micro/Mesozooplankton', 'Macrozooplankton', 'Benthic invertebrates', 'Squids', 'Benthic small crustaceans']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albatross Bay (1986)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthic herbivores', 'Estuarine microbial heterotrophs', 'Estuarine zooplankton', 'Estuary detritivores', 'Insects']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aleutian Islands (1963)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Small zooplankton', 'Cephalopods', 'Benthic inverts', 'Shrimps', 'Epiben carnivores']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alto Golfo de California (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Infauna', 'Mojarras', 'Haemulidos', 'Poliquetos', 'Myctophidos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antarctic (1970)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Copepods', 'Hemichordata', 'Holothuroidea', 'Micro-Zooplankton', 'Macro-Zooplankton']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apalachicola Bay (2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Macrozooplankton', 'Microzooplankton', 'Zoobenthos', 'Blue crab', 'Oysters']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arctic seas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['phytoplankton', 'benthonic invertebrates', 'bacteria', 'larger zooplankton', 'Greenland shark']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia North West Shelf (1986)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['LgZooplankton', 'SmZooplankton', 'Megabenthos', 'Macrofauna', 'SmallPelagics']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azores (1997)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Small Zooplankton', 'Benthic filter feeders', 'Other benthos', 'Benthic worms', 'Crabs']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azores archipelago (1997)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['large zoopl', 'small zoopl', 'other benthos', 'sea stars', 'coastal M herb']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baie de Seine (2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Meszooplankton and Macrozooplancton', 'Suprabenthos', 'Bacteria', 'Benthic inv. deposit feeders (Subsurface)', 'King scallop']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bamboung (2003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Macrobenthos', 'Tilapias', 'Zooplancton', 'Meiobenthos', 'Petits benthoph']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bamboung (2006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barnegat Bay (1981)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthic infauna/epifauna', 'Bay anchovy', 'Amphipods', 'Hard clams', 'Oyster']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barra Del Chuy (1992)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Birds', 'Atlantorchestoidea brasiliensis', 'Carabide', 'Donax hanleyanus', 'Emerita brasiliensis']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay of Biscay (1970)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Small Deepwater', 'Worms', 'Zooplankton Large', 'Molluscs', 'Sponges/Epibenthic']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay of Biscay (1980)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Bacteria', 'Surface suspension and deposit feeders', 'Subsurface deposit feeders invertebrates', 'Shrimps', 'Benthic meiofauna']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay of Biscay (1994)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Mesozooplankton', 'Microzooplankton', 'Bacteria', 'Benthic meiofauna', 'Necrophagous benthic invertebrates']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay of Biscay (1998)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton Large', 'Small Deepwater', 'Crabs', 'Worms', 'Molluscs']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay of Biscay (2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida Bay - dry season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthic Flagellates', 'Herbivorous Amphipods', 'Detritivorous Gastropods', 'Detritivorous Crabs', 'Water Flagellates']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida Bay - wet season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthic Flagellates', 'Herbivorous Amphipods', 'Detritivorous Gastropods', 'Water Flagellates', 'Halfbeaks']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolinao Coral Reef (1980)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Molluscs', 'Sea cucumber', 'Sea Urchins', 'Siganus fusc.', 'Zooplankton']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Columbia coast (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['other benthos', 'shrimps', 'misc. small pelagics', 'misc. small demersals', 'crabs']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calvi Bay (1998)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Protozoa', 'Ot. Crustacea', 'Pel. Bacteria', 'Herb. Fish', 'Echinoderms']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap de Creus MPA - whole (2008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Meso and microzooplankton', 'Macrozooplankton', 'Other macro-benthos', 'Suprabenthos', 'Other sea urchin']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde (1981)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'Microfauna', 'Herbivores', 'Heterotrophic b', 'Molluscs/Worms']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celtic Sea-Biscay (1980)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton S', 'Benthos', 'Zooplankton L', 'Shrimps/crabs', 'Lobsters/crabs']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celtic Sea-Biscay (2012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celtic Sea (1980)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Bacteria', 'Surface suspension and deposit feeders', 'Sub-surface deposit feeders invertebrates', 'Shrimps', 'Benthic meiofauna']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celtic Sea (1985)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Bacteria', 'Commercial bivalves', 'Suspension/Surface detritus feeder benth. inv.', 'Mesozooplankton - Small', 'Benthic meiofauna']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celtic Sea (2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Atlantic (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Sm. Zoop. shlw', 'Het. bacteria', 'Sm. Zoop. deep', 'Megabenthos', 'Meiobenthos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Atlantic (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Baltic Sea (1974)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Mysids', 'macrozoobenthos', 'Detritus-water column', 'meiozoobenthos', 'Ad. Sprat']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Chile (1998)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Carrot prawn (a)', 'Carrot prawn (j)', 'Yellow prawn', 'Chilean hake (j)', 'Chilean hake (a)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Gulf of California (1978)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'Shrimp', 'Meiobenthos', 'Stomatopods', 'Polychaeta']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerbère-Banyuls MPA (2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chesapeake (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Other in/epi fauna', 'Littoral forage fish', 'Reef assoc. fish', 'Atl. croaker', 'Other suspension feeders']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contemporary Alosine (2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Bacteria', 'Small Copepods', 'Megabenthos filters', 'Microzooplankton', 'Large Copepods']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cypress Dry Season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Ter. Invertebrates', 'Aquatic Invertebrates', 'Mink', 'Living POC', 'Living sediment']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cypress Wet Season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Terrst. I', 'White ibis', 'Aquatic I', 'Raccoon', 'Living POC']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep Western Mediterranean sea (2009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Mesopelagic crustacea', 'Meiobenthos', 'Benthic invertebrates, other', 'Benthic invertebrates, crustacea', 'Aristeus antennatus']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark, Faroe Islands (1997)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthos', 'Other demersal fish', 'Other deep water', 'Greenland Halibut', 'Saithe']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Bass Strait (1994)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Squid', 'Macrobenthos', 'Cardinal', 'Megabenthos', 'Polychaeta']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Corsican Coast (2012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Worms', 'Benthic crustaceans', 'Echinoderms', 'Cnidaria', 'Zooplankton']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falkland Islands (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['benthic crustaceans', 'small demersal', 'grenadier', 'small cephalopods', 'dogfish']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Paajarvi, littoral zone, Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['bacterioplankton', 'Copepoda', 'Mollusca', 'Anodonta', 'Nematoda']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Pyhajarvi, littoral zone, Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Cyclopoida', 'Keratella, Kellicottia', 'Codonella, Vorticella', 'Lymnaea', 'chironomids']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida Bay (2006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Caridean shrimp', 'Small crustaceans', 'Bivalves', 'Annelids', 'Mud crabs']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galapagos (2006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Predatory zooplankton', 'Herbivorous zooplankton', 'Mullets', 'Herbivorous benthic fishes', 'Sea cucumbers']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galapagos, Floreana rocky reef (2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Herbivorous zooplankton', 'Small benthic invertebrate eaters', 'Filter + suspension feeders', 'Lytechinus urchin', 'Other sea cucumbers']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everglades Graminoids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Mesoinverts', 'Terrestrial Inverts', 'Fishing spider', 'Passerines', 'Mink']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenland, West Coast (1997)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Small Zooplankton', 'Large Zooplankton', 'Benthos', 'Other bot fish', 'Northern shrimp']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea (1985)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Large zooplankton', 'Small zooplankton', 'Benthos', 'Crustacea', 'Cephalopods']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea (1998)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthos', 'Zool S', 'Zool L', 'Crustacés', 'Céphalopodes']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea  (2004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulf of California (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'Farfantepenaeus californiensis (ADULTS)', 'Benthic inv.', 'Litopenaeus stylirostris (ADULTS)', 'Stomatopoda']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulf of Carpentaria (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Small crustaceans', 'Microbial heterotrophs', 'Zooplankton', 'Echinoids', 'Bivalves']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulf of Gabes (2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Micro and mesozooplankton', 'Amphipoda and Isopoda', 'Polychaetes', 'Benthic molluscs', 'Foraminifera']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulf of Mexico (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['18+ Mullet', 'Benthic Invertebrates', 'Macro Zooplankton', 'Shrimp', 'Caridan Shrimp']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulf of Thailande (1963)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'Scad', 'Benthos', 'O.fish', 'Shrimps']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hudson Bay (1970)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['MicroZooplankton', 'Copepods', 'Other Benthos', 'Bivalves', 'Marine Worms']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huizache-Caimanero (1984)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Gastropods', 'Polychaets', 'Microcrustaceans', 'Chanids', 'Zooplankton']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humboldt Current (1995)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Microzooplankton', 'macrobenthos', 'horse mackerels', 'large hake', 'medium sciaenids']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthos', 'Northern Shrimp', 'Nephrops', 'Molluscs', 'Baleen whales']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icelandic shelf (1997)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthos', 'Nothern shrimp', 'Other flatfish', 'Nephros', 'Molluscs']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Independence Bay (1996)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['zooplankton', 'littoral fish ', 'benthic detrivores', 'herbivorous gastropods', 'scallops']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irish Sea (1973)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Infauna (Polycheate)', 'Herbivorous Zooplankton', 'Meiofauna', 'Infaunal Mesobenthos', 'Prawns and Shrimp']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalisco and Colima Coast (1995)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Otros peces', 'Braquiuros', 'Infauna', 'Equinodermos', 'Otros macroinve']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurien Bay (2007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Small Zooplankton', 'Small mobil epifauna', 'Chaetognaths', 'Large Herb. Gastropods', 'Inshore reef ass. herbivore']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaloko Honokohau (2005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Sharks and jacks', 'Zooplankton', 'Corals', 'Benthic Invts', 'Urchins']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesser Antilles (2001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Small zooplankton', 'Large zooplankton', 'Small offshore pelagics', 'Small coastal pelagics', 'Coastal predators']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Rock Lake, Wisconsin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Alona affinis', 'Alona quadrangularis', 'Alona rustica', 'Alona intermedia', 'Alonella excisa']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looe Key National Marine Sanctuary (1980)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Decomp/Microf', 'LgReefHerbivore', 'SmReefHerbivore', 'Sessile Animals', 'Crustaceans']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malangen Fjord (2017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Bacteria', 'Microzooplankton', 'Detritivore polychaetes', 'Sea cucumbers', 'Small krill']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasek Bera swamp, Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['bacteria, fungi', 'detriuvorous invertebrates', 'detritivorous fishes', 'carnivorous fishes', 'emergent herbivorous insects']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mangrove Estuary - Dry Season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['INSCT', 'MICR. H2O', 'EPIFN', 'BACT.SED.', 'VULT']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mangrove Estuary - Wet Season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania (1987)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['micro zooplancton', 'meso zooplancton', 'mugilides', 'macrobenthos', 'crustaces non-comm']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania (1998)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritanie  (1991)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['mesozooplankton', 'BA mesozooplankton', 'BA meiobenthos', 'shelf meiobenthos', 'shelf molluscs']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medes Island MPA (2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco (1985)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Lg. zooplankton', 'Other benthos', 'Worms', 'Sm. deep water bottom', 'Detrital feeders']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mount St Michel Bay (2003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['juvenile cephal', 'juvéniles poiss', 'Moules', 'macrobenthos', 'Mulets']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ningaloo (2007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Adult Turtles', 'Dugongs', 'Urchins', 'Benthos', 'Herbivores']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Atlantic (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Atlantic (1997)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Benguela (1600)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Microzooplankto', 'Meiobenthos', 'Pelagic Goby', 'Macrobenthos', 'Gelatinous zoop']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Benguela (1900)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Benguela (1967)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Benguela (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North East Pacific (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Sea (1974)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Polychaetes', 'Echinoderms', 'Copepods', 'O.crustaceans', 'O.invertebrates']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Sea (1981)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['PT pico', 'Polychaeta', 'Echinodermata', 'O.macrobenthos', 'O.invertebrates']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North South of China Sea (1970)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplanktons', 'Polychaetes', 'Non-ceph molluscs', 'Benthic crustaceans', 'Shrimps']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Benguela (1956)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Mesozooplankton', 'Macrobenthos', 'Cephalopods', 'Jellyfish adults', 'Anchovy adults']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern British Columbia (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Carnivorous jellyfish', 'Epifaunal invertebrates', 'Forage fish', 'Infaunal carnivorous invertebrates', 'Infaunal invertebrate detritivores']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern British Columbia (2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Californian Current (1960)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['zooplankton', 'forage fish and mesopels', 'benthic invertebrates', 'shrimps', 'cephalopods']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Californian Current (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['amphipods', 'cephalopods', 'pandalid shp', 'juv rock', 'mackerel']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Gulf of Mexico (2005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['SEP', 'INF', 'ZOO', 'MEP', 'MUL']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Gulf of St Lawrence (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Echinoderms', 'Molluscs', 'Other bent. invert.', 'Small zooplankton', 'Large zooplankton']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Gulf St Lawrence (1985)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Echinoderms', 'Molluscs', 'Other ben. inver.', 'Small zooplankton', 'Large zooplankton']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Humboldt Current (1997)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Microzooplankton', 'macrobenthos', 'gelatinous zooplankton', 'horse mackerels', 'medium sciaenids']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraná River Floodplain (1992)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Insects', 'Zooplankton', 'Astyanax altiparanae', 'Other benthos feeders', 'Benthos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru (1953)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Meiobenthos', 'Makrobenthos', 'Zooplankton', 'Anchoveta', 'Sardine']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru (1960)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru (1973)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'Meiobenthos', 'Makrobenthos', 'Anchoveta', 'Sardine']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Cros (1998)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Foraminifera', 'Brittle stars +', 'Sea cucumbers', 'Small zooplankton', 'Bivalves']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Phillip Bay (1994)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Large zooplankton', 'Deposit Feeders', 'Filter Feeders', 'Epi. Predators', 'Other Grazers']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince William Sound (1994)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Shal Sm Epibent', 'Shal sm Infauna', 'Deep  Epibent', 'Shal Lg Epibent', 'Rockfish']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raja Ampat (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Infaunal invertebrates', 'Jellyfish and hydroids', 'Shrimps and prawns', 'Penaeid shrimps', 'Hermatypic scleractinian corals']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raja Ampat (2005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restored Alosine Biomass (2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Bacteria', 'Copepods_S', 'Megabenthos_filters', 'Microzooplankton', 'Copepods_L']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ria-Lake Tapajos (2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'Aquatic invertebrates', 'Others algivores/detritivores', 'Semaprochilodus spp. ', 'Schizodon spp.']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River Rheido, Wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[' Rhithrogena', ' Baetis', ' Chironomidae', ' Leuctra, Protonemeura, Amphinemura', ' Oligochaeta']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocky shore, Monterey Bay, California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['other phytoplankton', 'Suidasia sp.', 'Acmaea pella', 'Tegula funebralis', 'Acmaea digitalis']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salt meadow, New Zealand</t>
   </si>
   <si>
     <t xml:space="preserve">['amphipods', 'collembola', 'mites', 'fungi', 'harpacticoids']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sand beach, South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Gastrosaccus, Callianassa, Donax', 'bacteria', 'Cumacea', 'Turbellaria', 'Nemertea']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Pola Bay (2001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Bivalvos', 'Copepodos planct.', 'Anfipodos', 'Misidaceos', 'Poliquetos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sechura Bay (1996)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'littoral fish', 'Benthic detrivores', 'Herbivorous gastropods', 'Scallops']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shallow sublittoral, Cape Ann, Massachusetts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['annelids', 'Myoxocephalus', 'Pomatomus, Poronatus', 'isopods, Gammarus, Caprella', 'Crago']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone (1964)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Carnivorous zooplankton', 'Herbivorous zooplankton', 'Benthos', 'Mullets and other herbivores', 'Sardinellas']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone 1978 (1978)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaloa sur MEXICO (1994)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Gastropoda', 'Macrocrustáceos', 'Polychaeta', 'Zooplancton', 'Penaeidae']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sirinhaém River (2013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplakton', 'Bivalves', 'Gastropods', 'Fiddler crabs', 'Mullet  ']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sítios Novos reservoir (2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Camarão', 'Cladocera', 'Copepoda', 'M. tuberculata', 'Ostracoda']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonda_Campeche_Act (1988)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Infauna', 'Zooplancton', 'Epifauna', 'Camarón', 'Pulpo']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Benguela (1600)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Microzooplank.', 'Gelatinous zoo.', 'Macrobenthos', 'Benthicdemers', 'Meiobenthos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Benguela (1900)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Microzooplankto', 'Gelatinous zoop', 'Macrobenthos', 'Benthic-feedi23', 'Meiobenthos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Benguela (1978)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South East Alaska (1963)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthic inverts', 'L zoo', 'Epibenthic carnivorous', 'Shrimps', 'Sablefish']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South of Benguela (1960)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Microzooplankto', 'Gelatinous zooz', 'Macrobenthos', 'Benthic-feedi23', 'Meiobenthos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Shetlands (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Other zooplankton', 'Salps', 'Krill', 'Small invertebrates', 'Large invertebrates']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South western Gulf of Mexico (1970)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Annelids', 'Zooplankton', 'Microcrustacean', 'Molluscs', 'Crabs']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka (2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['zooplankton', 'zoobenthos', 'molluscs', 'crabs', 'annelids']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strait of Georgia (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['other benthos', 'crabs', 'misc. small demersals', 'shrimps', 'bivalves']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swamp, south Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['insect larvae', 'crayfish', 'plecopterans, odonates, hemipterans', 'cyprinodontids', 'amphipods']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sørfjord (1993)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['small zooplankton', 'detrivore echinoderms', 'detrivore polychaetes', 'large bivalves', 'other benthic invert']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampa Bay (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthic Invertebrates', 'Macro Zooplankton', 'Caridan Shrimp', 'Catfish', 'Bay Anchovy']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tagus estuary, Portugal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Crassostrea angulata', 'Scrobicularia plana, Cerastodenlla', 'Mytilus', 'bacteria', 'Gammaridae']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasmanian Seamounts Marine Reserve (1992)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'Gelatinous zooplankton', 'Benthopelagic fish', 'Megabenthos', 'Epibenthos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminos Lagoon (1980)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Meiofauna', 'Polychaetes', 'Zooplankton', 'Microcrustaceans', 'Molluscs']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thermaikos Gulf (1998)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'Benthic small crustaceans', 'Benthic invertebrates', 'Polychaetes', 'Shrimps']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropical plankton community, Pacific</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['bacteria', 'Appendicularia large', 'Radiolaria', 'Acartia  large', 'Infusoria']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA, Mid Atlantic Bight (1995)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Bivalves', 'Small crustaceans', 'Polychaetes', 'Euphausiids', 'Sessile epibenthos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA, South Atlantic Continental Shelf (1995)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'Bivalves', 'Benthic macrofauna (and meiofauna)', 'Sessile epibenthos', 'Echinoderms and gastropods']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgin Islands (1960)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['I7 Decom/Microf', 'F9 ReefherbBG', 'F8 ReefherbSM', 'I5 Sess.Animals', 'I3 Crustacea']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Baffin Bay, Coastal and Shelf (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Bacteria', 'Microzooplankton', 'Calanus', 'Omnivorous zooplankton', 'Other benthos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West coast of Sabah (1972)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Zooplankton', 'Meiobenthos', 'Macrobenthos', 'Small crsustaceans', 'Octopus sepia']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Florida Shelf (1985)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['anthozoans', 'microbes', 'mullet', 'sessile epibenthos', 'herbivorous zooplankton']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Florida Shelf Historic Model (1950)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Microbial Heterotrophs', 'Mullets', 'Bivalves', 'Small Copepods', 'Sessile epibenthos']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Scotland (2000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Epifauna', 'Infauna', 'Small zooplankton', 'Polychaetes', 'Large zooplankton']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West scotland DeepSea (1974)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Large zooplankton', 'Polychaetes', 'Prawns and shrimp', 'Other benthic inverts', 'Echinoderms']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Antarctic Peninsula (1996)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Benthic invertbrates', 'Micro-Zool', 'Meso zooplankton', 'Krill Small', 'Krill Large']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Channel (1973)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Mesozooplankton', 'deposit feeders', 'Bivalves', 'scallops', 'Echinoderms']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Channel (1993)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Mesozooplankton', 'deposit feeders', 'Bivalves', 'Scallops', 'Echinoderms']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Tropical Pacific Ocean (1990)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['mesozooplankton', 'crustacea', 'epipelagic fish', 'mesopelagic fish', 'piscivorous fish']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ythan estuary, Aberdeenshire, Scotland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Flounder Platichthyes fiesus', 'Corophium volutator', 'Ragworm Nereis diversicolor', 'Barnacles Semibalanus balanoides', 'Gammurus sp.']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yucatan (1987)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Annelids', 'Microcrustacean', 'Octopus', 'Shrimps', 'Zooplankton']</t>
   </si>
 </sst>
 </file>
@@ -1108,6 +1108,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9DCE3"/>
+          <bgColor rgb="FF252932"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1119,12 +1136,13 @@
   <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.177170035671819</v>
+        <v>0.351133786848073</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
@@ -1154,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.220182291666667</v>
+        <v>0.324796079352825</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -1165,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.169614028851566</v>
+        <v>0.305125</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>8</v>
@@ -1176,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.0617964778503994</v>
+        <v>0.299546074074074</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
@@ -1187,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.231940395205701</v>
+        <v>0.293866636322258</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>12</v>
@@ -1198,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.125256451787064</v>
+        <v>0.290530225931203</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>14</v>
@@ -1209,7 +1227,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.106337271750806</v>
+        <v>0.288613719299684</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>16</v>
@@ -1220,7 +1238,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.184993893751272</v>
+        <v>0.281776094276094</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>18</v>
@@ -1231,7 +1249,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.243324487152075</v>
+        <v>0.281170378893729</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>20</v>
@@ -1242,7 +1260,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.2198486328125</v>
+        <v>0.281024470477661</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>22</v>
@@ -1253,384 +1271,384 @@
         <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.0602201664979717</v>
+        <v>0.281024470477661</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.280896</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.172100230636171</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.27725</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.227372014924964</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.276671408250356</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.1698125</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.276620297109247</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.259174217885112</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.274348422496571</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.228908505738172</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.27424</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.189363918101915</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.270748299319728</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.0982344102178813</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.270490166959621</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.209207746826447</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.269098994022452</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.21122633744856</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.264980317830588</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0.195823159278738</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.19418799265738</v>
+        <v>0.264634057442776</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.281024470477661</v>
+        <v>0.264524712057151</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.281024470477661</v>
+        <v>0.264524712057151</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.21404257481075</v>
+        <v>0.259778425655977</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.27725</v>
+        <v>0.259174217885112</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.253449943734823</v>
+        <v>0.2588</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.209585618996111</v>
+        <v>0.258716501501719</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.198147681451613</v>
+        <v>0.254505280073462</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.231180779025921</v>
+        <v>0.253997331343149</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.209546988075923</v>
+        <v>0.253449943734823</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.176894959349594</v>
+        <v>0.253131195335277</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.181459772357724</v>
+        <v>0.251653406510967</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.249601729631315</v>
+        <v>0.25137674117266</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.116089120549178</v>
+        <v>0.250510204081633</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.231824417009602</v>
+        <v>0.249875</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.174190107805612</v>
+        <v>0.249601729631315</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.229599543486288</v>
+        <v>0.248589743589744</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.201250182242309</v>
+        <v>0.247793565753035</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.201250182242309</v>
+        <v>0.246520443014234</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.197353354018912</v>
+        <v>0.245008680555556</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.247793565753035</v>
+        <v>0.244896675764398</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.199135638297872</v>
+        <v>0.244681999784041</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.243324487152075</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.264634057442776</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.240444273648866</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.264980317830588</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,623 +1656,623 @@
         <v>88</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.168764087152517</v>
+        <v>0.240116875700417</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.23760986328125</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.114458481805421</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.237450056094633</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.274348422496571</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.198866102430556</v>
+        <v>0.237208947585963</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.235165476016912</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0.139358024691358</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.23424</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0.276620297109247</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.233395617462205</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>0.123820383768481</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0.231940395205701</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0.116634554891475</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0.231848665986295</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>0.270748299319728</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.231824417009602</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0.110570684206877</v>
+        <v>0.231611750984108</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.202987238490197</v>
+        <v>0.231180779025921</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0.129320060105184</v>
+        <v>0.23075</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.201487812598924</v>
+        <v>0.229599543486288</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.2588</v>
+        <v>0.228908505738172</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0.178951719251284</v>
+        <v>0.228690693080365</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0.228455352422295</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0.244896675764398</v>
+        <v>0.227372014924964</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0.179554780762167</v>
+        <v>0.221802216378663</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.212434259954921</v>
+        <v>0.22170830202855</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0.253131195335277</v>
+        <v>0.22075</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.218667824943651</v>
+        <v>0.220182291666667</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.259778425655977</v>
+        <v>0.2198486328125</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0.290530225931203</v>
+        <v>0.218667824943651</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0.21831905937001</v>
+        <v>0.218407407407407</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0.189083878643664</v>
+        <v>0.21831905937001</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.179398148148148</v>
+        <v>0.217579095130116</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0.179958177867071</v>
+        <v>0.21725</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0.248589743589744</v>
+        <v>0.21684375</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.293866636322258</v>
+        <v>0.21675</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0.14472549183293</v>
+        <v>0.216375</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0.192418981481482</v>
+        <v>0.216147018661811</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0.204837490551776</v>
+        <v>0.216147018661811</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0.23075</v>
+        <v>0.216147018661811</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.228690693080365</v>
+        <v>0.216147018661811</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0.276671408250356</v>
+        <v>0.216064453125</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0.199649493243243</v>
+        <v>0.215175576122322</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.164656349567592</v>
+        <v>0.2145</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0.17280386693968</v>
+        <v>0.21404257481075</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0.0921630145002926</v>
+        <v>0.213502535687453</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0.249875</v>
+        <v>0.212936011001054</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0.281776094276094</v>
+        <v>0.212434259954921</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.0786113749076712</v>
+        <v>0.21122633744856</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.237450056094633</v>
+        <v>0.209585618996111</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.237208947585963</v>
+        <v>0.209546988075923</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.231848665986295</v>
+        <v>0.209207746826447</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0.231611750984108</v>
+        <v>0.208161865569273</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0.253997331343149</v>
+        <v>0.207537615740741</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0.173808704104984</v>
+        <v>0.204837490551776</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0.235165476016912</v>
+        <v>0.202987238490197</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.207537615740741</v>
+        <v>0.202930999389375</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.212936011001054</v>
+        <v>0.20157475582269</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.264524712057151</v>
+        <v>0.201487812598924</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.264524712057151</v>
+        <v>0.201344</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0.216147018661811</v>
+        <v>0.201250182242309</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0.216147018661811</v>
+        <v>0.201250182242309</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0.216147018661811</v>
+        <v>0.199649493243243</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>190</v>
@@ -2262,24 +2280,24 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>0.216147018661811</v>
+        <v>0.199135638297872</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>0.198866102430556</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="B105" s="0" t="n">
-        <v>0.109426248177843</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,7 +2305,7 @@
         <v>195</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0.19195556640625</v>
+        <v>0.198147681451613</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>196</v>
@@ -2298,54 +2316,54 @@
         <v>197</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0.179835171593751</v>
+        <v>0.197353354018912</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>0.195823159278738</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="B108" s="0" t="n">
-        <v>0.269098994022452</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>0.19418799265738</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="B109" s="0" t="n">
-        <v>0.15423583984375</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>0.192418981481482</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="B110" s="0" t="n">
-        <v>0.166244488868198</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>0.19195556640625</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B111" s="0" t="n">
-        <v>0.171214776679355</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2371,7 @@
         <v>206</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0.102837791495199</v>
+        <v>0.190810495626822</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>207</v>
@@ -2364,7 +2382,7 @@
         <v>208</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0.162137714830923</v>
+        <v>0.189363918101915</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>209</v>
@@ -2375,7 +2393,7 @@
         <v>210</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.299546074074074</v>
+        <v>0.189083878643664</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>211</v>
@@ -2386,7 +2404,7 @@
         <v>212</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0.23760986328125</v>
+        <v>0.184993893751272</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>213</v>
@@ -2397,7 +2415,7 @@
         <v>214</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0.216064453125</v>
+        <v>0.182</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>215</v>
@@ -2408,7 +2426,7 @@
         <v>216</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0.137741046831956</v>
+        <v>0.181459772357724</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>217</v>
@@ -2419,7 +2437,7 @@
         <v>218</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0.2145</v>
+        <v>0.179958177867071</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>219</v>
@@ -2430,7 +2448,7 @@
         <v>220</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0.216375</v>
+        <v>0.179835171593751</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>221</v>
@@ -2441,87 +2459,87 @@
         <v>222</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0.21725</v>
+        <v>0.179554780762167</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0.22075</v>
+        <v>0.179398148148148</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>0.258716501501719</v>
+        <v>0.178951719251284</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>0.202930999389375</v>
+        <v>0.178446461083295</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0.161392285628019</v>
+        <v>0.177170035671819</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0.240116875700417</v>
+        <v>0.176894959349594</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0.240444273648866</v>
+        <v>0.174190107805612</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>0.270490166959621</v>
+        <v>0.173808704104984</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2547,7 @@
         <v>236</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>0.190810495626822</v>
+        <v>0.17280386693968</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>237</v>
@@ -2540,7 +2558,7 @@
         <v>238</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0.208161865569273</v>
+        <v>0.172100230636171</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>239</v>
@@ -2551,7 +2569,7 @@
         <v>240</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0.138145772594752</v>
+        <v>0.171925925925926</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>241</v>
@@ -2562,7 +2580,7 @@
         <v>242</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>0.0424362139917696</v>
+        <v>0.171214776679355</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>243</v>
@@ -2573,7 +2591,7 @@
         <v>244</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>0.351133786848073</v>
+        <v>0.170906960194584</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>245</v>
@@ -2584,7 +2602,7 @@
         <v>246</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0.142117787031529</v>
+        <v>0.170309037900875</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>247</v>
@@ -2595,7 +2613,7 @@
         <v>248</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>0.217579095130116</v>
+        <v>0.1698125</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>249</v>
@@ -2606,7 +2624,7 @@
         <v>250</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>0.0954</v>
+        <v>0.169614028851566</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>251</v>
@@ -2617,7 +2635,7 @@
         <v>252</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>0.213502535687453</v>
+        <v>0.168888662731529</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>253</v>
@@ -2628,285 +2646,285 @@
         <v>254</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>0.22170830202855</v>
+        <v>0.168764087152517</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>0.221802216378663</v>
+        <v>0.166244488868198</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0.251653406510967</v>
+        <v>0.164656349567592</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>0.27424</v>
+        <v>0.162137714830923</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>0.324796079352825</v>
+        <v>0.161392285628019</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>0.23424</v>
+        <v>0.157650361731994</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>0.156494140625</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0.156494140625</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>0.156494140625</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>0.21684375</v>
+        <v>0.156494140625</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>0.156494140625</v>
+        <v>0.15423583984375</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>0.171925925925926</v>
+        <v>0.14472549183293</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>0.245008680555556</v>
+        <v>0.143788432532776</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>0.215175576122322</v>
+        <v>0.143788432532776</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>0.104168294515402</v>
+        <v>0.142117787031529</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>0.0713305898491084</v>
+        <v>0.139358024691358</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0.280896</v>
+        <v>0.138145772594752</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>0.178446461083295</v>
+        <v>0.137741046831956</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>0.233395617462205</v>
+        <v>0.129320060105184</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>0.201344</v>
+        <v>0.125256451787064</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>0.305125</v>
+        <v>0.123820383768481</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>0.254505280073462</v>
+        <v>0.116634554891475</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>0.281170378893729</v>
+        <v>0.116089120549178</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>0.20157475582269</v>
+        <v>0.114458481805421</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>0.244681999784041</v>
+        <v>0.110570684206877</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>0.25137674117266</v>
+        <v>0.109426248177843</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,7 +2932,7 @@
         <v>303</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>0.218407407407407</v>
+        <v>0.106337271750806</v>
       </c>
       <c r="C163" s="0" t="s">
         <v>304</v>
@@ -2925,7 +2943,7 @@
         <v>305</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>0.288613719299684</v>
+        <v>0.104168294515402</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>306</v>
@@ -2936,7 +2954,7 @@
         <v>307</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>0.170906960194584</v>
+        <v>0.102837791495199</v>
       </c>
       <c r="C165" s="0" t="s">
         <v>308</v>
@@ -2947,7 +2965,7 @@
         <v>309</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>0.250510204081633</v>
+        <v>0.0982344102178813</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>310</v>
@@ -2958,7 +2976,7 @@
         <v>311</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>0.246520443014234</v>
+        <v>0.0954</v>
       </c>
       <c r="C167" s="0" t="s">
         <v>312</v>
@@ -2969,7 +2987,7 @@
         <v>313</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>0.168888662731529</v>
+        <v>0.0948412869934134</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>314</v>
@@ -2980,7 +2998,7 @@
         <v>315</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>0.170309037900875</v>
+        <v>0.0921630145002926</v>
       </c>
       <c r="C169" s="0" t="s">
         <v>316</v>
@@ -2991,7 +3009,7 @@
         <v>317</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>0.143788432532776</v>
+        <v>0.0786113749076712</v>
       </c>
       <c r="C170" s="0" t="s">
         <v>318</v>
@@ -3002,7 +3020,7 @@
         <v>319</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>0.143788432532776</v>
+        <v>0.0713305898491084</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>320</v>
@@ -3013,7 +3031,7 @@
         <v>321</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>0.21675</v>
+        <v>0.0617964778503994</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>322</v>
@@ -3024,7 +3042,7 @@
         <v>323</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>0.0948412869934134</v>
+        <v>0.0602201664979717</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>324</v>
@@ -3035,7 +3053,7 @@
         <v>325</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>0.157650361731994</v>
+        <v>0.0424362139917696</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>326</v>
